--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f829f70ec5d0333a/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LinkedIn_Job_Scrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BFC0F77-2180-4224-A683-A16AA1F30D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96322E0F-6101-45E8-AA8F-C1F21FE51800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DD76973A-264C-459F-AEE4-DA958D0712E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD76973A-264C-459F-AEE4-DA958D0712E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Username</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>sankalan06</t>
-  </si>
-  <si>
-    <t>Ss9832496336@</t>
   </si>
 </sst>
 </file>
@@ -418,16 +415,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,18 +432,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D62E9679-3567-4E03-92FE-A82787049C17}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>